--- a/steamcase/user/userCollectionContentcase.xlsx
+++ b/steamcase/user/userCollectionContentcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{94067E8A-D9AE-463B-AD7A-D700FD3FA6EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A8AF03E-5E28-4E13-981F-B76E3E558965}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>video_auth_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取视频播放的鉴权信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>/resource-service/resource/collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_collect_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,22 +505,22 @@
     </row>
     <row r="2" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
